--- a/صيدليات دكتور مصطفي طلعت_2025-12-24_22-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-24_22-34.xlsx
@@ -218,12 +218,6 @@
     <t>54.0000</t>
   </si>
   <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -765,6 +759,15 @@
   </si>
   <si>
     <t>53.0000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
   </si>
   <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
@@ -2165,7 +2168,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2175,14 +2178,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2191,14 +2194,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2208,14 +2211,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2224,28 +2227,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>15</v>
@@ -2257,31 +2260,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2290,14 +2293,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2307,11 +2310,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2323,14 +2326,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2340,11 +2343,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2356,14 +2359,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2373,14 +2376,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2389,14 +2392,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2406,14 +2409,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2422,14 +2425,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2439,14 +2442,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2455,14 +2458,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2472,14 +2475,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2488,14 +2491,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2505,14 +2508,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2528,7 +2531,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2538,14 +2541,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2554,14 +2557,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2571,14 +2574,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2587,14 +2590,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2604,14 +2607,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2620,14 +2623,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2637,14 +2640,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2653,14 +2656,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2670,14 +2673,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2686,14 +2689,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2703,11 +2706,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2719,31 +2722,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2752,31 +2755,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>15</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2792,7 +2795,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2802,14 +2805,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2818,14 +2821,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2835,14 +2838,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2851,14 +2854,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2868,14 +2871,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2884,14 +2887,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2901,14 +2904,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2917,28 +2920,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>15</v>
@@ -2950,28 +2953,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>15</v>
@@ -2983,7 +2986,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3000,14 +3003,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3016,14 +3019,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3033,14 +3036,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3056,7 +3059,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3066,14 +3069,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3082,24 +3085,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3122,24 +3125,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3155,7 +3158,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3165,7 +3168,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3188,7 +3191,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3198,14 +3201,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3214,14 +3217,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3231,11 +3234,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>15</v>
@@ -3247,14 +3250,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3264,14 +3267,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3280,7 +3283,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3297,14 +3300,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3313,14 +3316,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3330,11 +3333,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3346,14 +3349,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3363,7 +3366,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3396,14 +3399,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3412,14 +3415,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3429,14 +3432,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3445,28 +3448,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3478,31 +3481,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3518,7 +3521,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3528,11 +3531,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>15</v>
@@ -3561,11 +3564,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3577,14 +3580,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3594,14 +3597,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3610,14 +3613,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3627,11 +3630,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3643,14 +3646,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3660,14 +3663,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3676,14 +3679,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3693,14 +3696,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3709,14 +3712,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3726,14 +3729,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3749,7 +3752,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3759,11 +3762,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3775,14 +3778,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3792,11 +3795,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3808,14 +3811,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3825,7 +3828,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3848,7 +3851,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3858,11 +3861,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3874,14 +3877,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3891,11 +3894,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3907,14 +3910,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3924,14 +3927,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3940,14 +3943,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3957,14 +3960,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3973,31 +3976,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4006,7 +4009,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4019,15 +4022,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -4039,7 +4042,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4052,15 +4055,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -4072,7 +4075,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4085,11 +4088,11 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4112,7 +4115,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4122,14 +4125,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4145,21 +4148,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4178,21 +4181,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4204,14 +4207,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4221,11 +4224,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4237,14 +4240,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4254,11 +4257,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4270,28 +4273,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4303,14 +4306,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4320,11 +4323,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>15</v>
@@ -4336,14 +4339,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4353,14 +4356,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4369,7 +4372,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4386,11 +4389,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>37</v>
@@ -4402,7 +4405,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4419,11 +4422,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>15</v>
@@ -4435,7 +4438,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4448,15 +4451,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4468,14 +4471,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4485,11 +4488,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4501,7 +4504,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4518,11 +4521,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>15</v>
@@ -4534,7 +4537,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4547,15 +4550,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4567,14 +4570,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4584,11 +4587,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>15</v>
@@ -4600,7 +4603,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4617,11 +4620,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>15</v>
@@ -4633,14 +4636,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4666,14 +4669,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4683,14 +4686,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4699,14 +4702,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4716,7 +4719,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4732,14 +4735,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4749,11 +4752,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>15</v>
@@ -4765,7 +4768,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4782,11 +4785,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>15</v>
@@ -4798,14 +4801,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4815,11 +4818,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>15</v>
@@ -4831,28 +4834,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>15</v>
@@ -4864,7 +4867,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4877,7 +4880,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4885,7 +4888,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>15</v>
@@ -4897,28 +4900,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>15</v>
@@ -4930,7 +4933,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4943,18 +4946,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,7 +4966,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4976,18 +4979,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4996,7 +4999,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5009,18 +5012,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5029,28 +5032,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>15</v>
@@ -5062,7 +5065,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5075,11 +5078,11 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5095,28 +5098,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>15</v>
@@ -5128,7 +5131,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5141,15 +5144,15 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>15</v>
@@ -5161,7 +5164,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5174,18 +5177,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5194,28 +5197,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>15</v>
@@ -5227,20 +5230,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5248,7 +5251,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>15</v>
@@ -5260,28 +5263,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>15</v>
@@ -5293,28 +5296,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>15</v>
@@ -5322,7 +5325,7 @@
     </row>
     <row r="119" ht="26.25" customHeight="1">
       <c r="N119" s="13">
-        <v>6402.2749999999996</v>
+        <v>6399.5699999999997</v>
       </c>
       <c r="O119" s="13"/>
       <c r="P119" s="13"/>
@@ -5330,7 +5333,7 @@
     </row>
     <row r="120" ht="16.5" customHeight="1">
       <c t="s" r="A120" s="14">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -5338,13 +5341,13 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c t="s" r="G120" s="15">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="16"/>
       <c t="s" r="K120" s="17">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
